--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.7304773333333333</v>
+      </c>
+      <c r="H2">
+        <v>2.191432</v>
+      </c>
+      <c r="I2">
+        <v>0.03163269997405359</v>
+      </c>
+      <c r="J2">
+        <v>0.03163269997405359</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.004760666666666</v>
-      </c>
-      <c r="H2">
-        <v>6.014282</v>
-      </c>
-      <c r="I2">
-        <v>0.1200698528618338</v>
-      </c>
-      <c r="J2">
-        <v>0.1200698528618338</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>0.9766478936695554</v>
+        <v>0.04091403544</v>
       </c>
       <c r="R2">
-        <v>8.789831043025998</v>
+        <v>0.36822631896</v>
       </c>
       <c r="S2">
-        <v>0.0229868746598889</v>
+        <v>0.0008574194411977813</v>
       </c>
       <c r="T2">
-        <v>0.0229868746598889</v>
+        <v>0.0008574194411977814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H3">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J3">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>3.738379457927333</v>
+        <v>1.362158337810667</v>
       </c>
       <c r="R3">
-        <v>33.64541512134599</v>
+        <v>12.259425040296</v>
       </c>
       <c r="S3">
-        <v>0.08798837389348252</v>
+        <v>0.02854621961065888</v>
       </c>
       <c r="T3">
-        <v>0.08798837389348252</v>
+        <v>0.02854621961065888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.004760666666666</v>
+        <v>0.7304773333333333</v>
       </c>
       <c r="H4">
-        <v>6.014282</v>
+        <v>2.191432</v>
       </c>
       <c r="I4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="J4">
-        <v>0.1200698528618338</v>
+        <v>0.03163269997405359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.3864042534288889</v>
+        <v>0.106365534984</v>
       </c>
       <c r="R4">
-        <v>3.47763828086</v>
+        <v>0.957289814856</v>
       </c>
       <c r="S4">
-        <v>0.009094604308462345</v>
+        <v>0.002229060922196932</v>
       </c>
       <c r="T4">
-        <v>0.009094604308462347</v>
+        <v>0.002229060922196932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>28.228965</v>
       </c>
       <c r="I5">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J5">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N5">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P5">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q5">
-        <v>4.584048304971666</v>
+        <v>0.52703477655</v>
       </c>
       <c r="R5">
-        <v>41.25643474474499</v>
+        <v>4.743312988950001</v>
       </c>
       <c r="S5">
-        <v>0.1078924600198977</v>
+        <v>0.0110448617141174</v>
       </c>
       <c r="T5">
-        <v>0.1078924600198978</v>
+        <v>0.01104486171411741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.228965</v>
       </c>
       <c r="I6">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J6">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>1.864751</v>
       </c>
       <c r="N6">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O6">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P6">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q6">
         <v>17.546663570905</v>
@@ -818,10 +818,10 @@
         <v>157.919972138145</v>
       </c>
       <c r="S6">
-        <v>0.4129870742752055</v>
+        <v>0.3677185667963245</v>
       </c>
       <c r="T6">
-        <v>0.4129870742752055</v>
+        <v>0.3677185667963246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.228965</v>
       </c>
       <c r="I7">
-        <v>0.5635664696121425</v>
+        <v>0.4074771110502447</v>
       </c>
       <c r="J7">
-        <v>0.5635664696121424</v>
+        <v>0.4074771110502448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N7">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O7">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P7">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q7">
-        <v>1.813648270216667</v>
+        <v>1.370149274205</v>
       </c>
       <c r="R7">
-        <v>16.32283443195</v>
+        <v>12.331343467845</v>
       </c>
       <c r="S7">
-        <v>0.04268693531703914</v>
+        <v>0.0287136825398027</v>
       </c>
       <c r="T7">
-        <v>0.04268693531703914</v>
+        <v>0.0287136825398027</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H8">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J8">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N8">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O8">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P8">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q8">
-        <v>2.573301390190667</v>
+        <v>0.72546071276</v>
       </c>
       <c r="R8">
-        <v>23.159712511716</v>
+        <v>6.52914641484</v>
       </c>
       <c r="S8">
-        <v>0.06056651215022697</v>
+        <v>0.01520319646439704</v>
       </c>
       <c r="T8">
-        <v>0.06056651215022698</v>
+        <v>0.01520319646439705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H9">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J9">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.864751</v>
       </c>
       <c r="N9">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O9">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P9">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q9">
-        <v>9.849995191204</v>
+        <v>24.15289394000933</v>
       </c>
       <c r="R9">
-        <v>88.64995672083599</v>
+        <v>217.376045460084</v>
       </c>
       <c r="S9">
-        <v>0.2318344270522977</v>
+        <v>0.5061627532615756</v>
       </c>
       <c r="T9">
-        <v>0.2318344270522976</v>
+        <v>0.5061627532615758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.282204</v>
+        <v>12.95234266666667</v>
       </c>
       <c r="H10">
-        <v>15.846612</v>
+        <v>38.857028</v>
       </c>
       <c r="I10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757016</v>
       </c>
       <c r="J10">
-        <v>0.3163636775260238</v>
+        <v>0.5608901889757018</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N10">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O10">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P10">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q10">
-        <v>1.018109606306667</v>
+        <v>1.886003568036</v>
       </c>
       <c r="R10">
-        <v>9.162986456760001</v>
+        <v>16.974032112324</v>
       </c>
       <c r="S10">
-        <v>0.02396273832349915</v>
+        <v>0.03952423924972894</v>
       </c>
       <c r="T10">
-        <v>0.02396273832349915</v>
+        <v>0.03952423924972895</v>
       </c>
     </row>
   </sheetData>
